--- a/SUP_Manual.xlsx
+++ b/SUP_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15C30F-9FE3-4C4E-8166-55E692CDF98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8203397-F89D-4E11-A50B-5FA80787FCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +818,10 @@
         <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -844,7 +853,10 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>

--- a/SUP_Manual.xlsx
+++ b/SUP_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E77A80-6D2A-42B9-998B-3F499CC87E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6F99D3-3E2B-46FC-A2AB-6FCAD55F7180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Account details are displayed</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +694,9 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
@@ -723,6 +729,9 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
@@ -755,6 +764,9 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
@@ -787,6 +799,9 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
@@ -819,6 +834,9 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
@@ -850,6 +868,9 @@
       </c>
       <c r="I7" t="s">
         <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>

--- a/SUP_Manual.xlsx
+++ b/SUP_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6F99D3-3E2B-46FC-A2AB-6FCAD55F7180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF29B50-346D-48C1-BF2F-59E527A18ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Location details are displayed</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
     <t>New Test Case</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>Account details are displayed</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -613,7 +607,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I2" sqref="I2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,263 +686,245 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
       <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -960,27 +936,27 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -992,109 +968,109 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>61</v>
       </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
         <v>61</v>
       </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>70</v>
       </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/SUP_Manual.xlsx
+++ b/SUP_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF29B50-346D-48C1-BF2F-59E527A18ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A44F2-59F7-4C88-A9BA-A3AD2742EB52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
